--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4384" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +622,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +668,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1008,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1055,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1101,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1181,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1228,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1274,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1342,10 +1354,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1389,28 +1401,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1435,28 +1447,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1631,10 +1643,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1678,28 +1690,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1724,28 +1736,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1833,10 +1845,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1880,28 +1892,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1926,28 +1938,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2035,10 +2047,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2082,28 +2094,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2128,28 +2140,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2208,10 +2220,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2255,28 +2267,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2301,28 +2313,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2381,10 +2393,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2428,28 +2440,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2474,28 +2486,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2554,10 +2566,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2601,28 +2613,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2647,28 +2659,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2785,10 +2797,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2832,28 +2844,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2878,28 +2890,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3016,10 +3028,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3063,28 +3075,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3109,28 +3121,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3189,10 +3201,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3236,28 +3248,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3282,28 +3294,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3362,10 +3374,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3409,28 +3421,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3455,28 +3467,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3535,10 +3547,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3582,28 +3594,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3628,28 +3640,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3708,10 +3720,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3755,28 +3767,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3801,28 +3813,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3881,10 +3893,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3928,28 +3940,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3974,28 +3986,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4112,10 +4124,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4159,28 +4171,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4205,28 +4217,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4285,10 +4297,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4332,28 +4344,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4378,28 +4390,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4458,10 +4470,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4505,28 +4517,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4551,28 +4563,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4631,10 +4643,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4678,28 +4690,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4724,28 +4736,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4804,10 +4816,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4851,28 +4863,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4897,28 +4909,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4977,10 +4989,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5024,28 +5036,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5070,28 +5082,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5150,10 +5162,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5197,28 +5209,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5243,28 +5255,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5439,10 +5451,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5486,28 +5498,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5532,28 +5544,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5641,10 +5653,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5688,28 +5700,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5734,28 +5746,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5930,10 +5942,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5977,28 +5989,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6023,28 +6035,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6190,10 +6202,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6237,28 +6249,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6283,28 +6295,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6363,10 +6375,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6410,28 +6422,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6456,28 +6468,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6536,10 +6548,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6583,28 +6595,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6629,28 +6641,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6709,10 +6721,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6756,28 +6768,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6802,28 +6814,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6882,10 +6894,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6929,28 +6941,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6975,28 +6987,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7084,10 +7096,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7131,28 +7143,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7177,28 +7189,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7257,10 +7269,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7304,28 +7316,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7350,28 +7362,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7430,10 +7442,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7477,28 +7489,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7523,28 +7535,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7632,10 +7644,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7679,28 +7691,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7725,28 +7737,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7805,10 +7817,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7852,28 +7864,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7898,28 +7910,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7978,10 +7990,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8025,28 +8037,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8071,28 +8083,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8151,10 +8163,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8198,28 +8210,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8244,28 +8256,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8324,10 +8336,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8371,28 +8383,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8417,28 +8429,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8497,10 +8509,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8544,28 +8556,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8590,28 +8602,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8699,10 +8711,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8746,28 +8758,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8792,28 +8804,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8872,10 +8884,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8919,28 +8931,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8965,28 +8977,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9045,10 +9057,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9092,28 +9104,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9138,28 +9150,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9247,10 +9259,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9294,28 +9306,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
+      <c r="A318" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="2">
+      <c r="C318" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9340,28 +9352,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="C320" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="2">
+      <c r="D320" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="2">
+      <c r="I320" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9420,10 +9432,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="2" t="s">
+      <c r="J322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9467,28 +9479,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="2">
+      <c r="A324" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="2">
+      <c r="C324" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9513,28 +9525,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="2">
+      <c r="C326" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="2">
+      <c r="D326" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="2">
+      <c r="I326" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9651,10 +9663,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="2" t="s">
+      <c r="J330" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9698,28 +9710,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="2">
+      <c r="A332" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="2">
+      <c r="C332" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9744,28 +9756,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="2">
+      <c r="C334" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="2">
+      <c r="D334" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="2">
+      <c r="I334" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9853,10 +9865,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="2" t="s">
+      <c r="J337" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9900,28 +9912,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="2">
+      <c r="A339" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="2">
+      <c r="C339" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9946,28 +9958,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="2">
+      <c r="C341" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="2">
+      <c r="D341" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="2">
+      <c r="I341" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10026,10 +10038,10 @@
       <c r="I343">
         <f>((C343-C342)^2+(D343- D342)^2)^.5</f>
       </c>
-      <c r="J343" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K343" s="2" t="s">
+      <c r="J343" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K343" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L343" t="n">
@@ -10073,28 +10085,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="2">
+      <c r="A345" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C345" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D345" t="s" s="2">
+      <c r="C345" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10119,28 +10131,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C347" t="s" s="2">
+      <c r="C347" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D347" t="s" s="2">
+      <c r="D347" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I347" t="s" s="2">
+      <c r="I347" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10199,10 +10211,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="2" t="s">
+      <c r="J349" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10246,28 +10258,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="2">
+      <c r="A351" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="2">
+      <c r="C351" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10292,28 +10304,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="2">
+      <c r="C353" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="2">
+      <c r="D353" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="2">
+      <c r="I353" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10430,10 +10442,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="2" t="s">
+      <c r="J357" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10477,28 +10489,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="2">
+      <c r="A359" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="2">
+      <c r="B359" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="2">
+      <c r="C359" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="2">
+      <c r="E359" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="2">
+      <c r="F359" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="2">
+      <c r="G359" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="2">
+      <c r="H359" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10523,28 +10535,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="2">
+      <c r="C361" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="2">
+      <c r="D361" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="2">
+      <c r="I361" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10603,10 +10615,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="2" t="s">
+      <c r="J363" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10650,28 +10662,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="2">
+      <c r="A365" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="2">
+      <c r="C365" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10696,28 +10708,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="2">
+      <c r="C367" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="2">
+      <c r="D367" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="2">
+      <c r="I367" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10776,10 +10788,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="2" t="s">
+      <c r="J369" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10823,28 +10835,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="2">
+      <c r="A371" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="2">
+      <c r="B371" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="2">
+      <c r="C371" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="2">
+      <c r="E371" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="2">
+      <c r="F371" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="2">
+      <c r="G371" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="2">
+      <c r="H371" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10869,28 +10881,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="2">
+      <c r="B373" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="2">
+      <c r="C373" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="2">
+      <c r="D373" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="2">
+      <c r="E373" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="2">
+      <c r="F373" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="2">
+      <c r="G373" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="2">
+      <c r="H373" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="2">
+      <c r="I373" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10949,10 +10961,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="2" t="s">
+      <c r="J375" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -10996,28 +11008,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="2">
+      <c r="A377" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="2">
+      <c r="B377" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="2">
+      <c r="C377" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="2">
+      <c r="E377" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="2">
+      <c r="F377" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="2">
+      <c r="G377" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="2">
+      <c r="H377" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11042,28 +11054,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="2">
+      <c r="B379" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="2">
+      <c r="C379" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="2">
+      <c r="D379" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="2">
+      <c r="E379" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="2">
+      <c r="F379" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="2">
+      <c r="G379" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="2">
+      <c r="H379" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="2">
+      <c r="I379" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11122,10 +11134,10 @@
       <c r="I381">
         <f>((C381-C380)^2+(D381- D380)^2)^.5</f>
       </c>
-      <c r="J381" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K381" s="2" t="s">
+      <c r="J381" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L381" t="n">
@@ -11169,28 +11181,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="s" s="2">
+      <c r="A383" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B383" t="s" s="2">
+      <c r="B383" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C383" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D383" t="s" s="2">
+      <c r="C383" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E383" t="s" s="2">
+      <c r="E383" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F383" t="s" s="2">
+      <c r="F383" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G383" t="s" s="2">
+      <c r="G383" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H383" t="s" s="2">
+      <c r="H383" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11215,28 +11227,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="B385" t="s" s="2">
+      <c r="B385" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C385" t="s" s="2">
+      <c r="C385" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D385" t="s" s="2">
+      <c r="D385" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E385" t="s" s="2">
+      <c r="E385" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F385" t="s" s="2">
+      <c r="F385" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G385" t="s" s="2">
+      <c r="G385" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H385" t="s" s="2">
+      <c r="H385" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I385" t="s" s="2">
+      <c r="I385" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11324,10 +11336,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="2" t="s">
+      <c r="J388" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11371,28 +11383,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="2">
+      <c r="A390" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="2">
+      <c r="B390" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="2">
+      <c r="C390" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="2">
+      <c r="E390" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="2">
+      <c r="F390" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="2">
+      <c r="G390" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="2">
+      <c r="H390" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11417,28 +11429,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="2">
+      <c r="B392" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="2">
+      <c r="C392" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="2">
+      <c r="D392" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="2">
+      <c r="E392" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="2">
+      <c r="F392" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="2">
+      <c r="G392" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="2">
+      <c r="H392" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="2">
+      <c r="I392" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11497,10 +11509,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="2" t="s">
+      <c r="J394" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11544,28 +11556,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="2">
+      <c r="A396" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="2">
+      <c r="C396" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11590,28 +11602,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="2">
+      <c r="B398" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="2">
+      <c r="C398" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="2">
+      <c r="D398" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="2">
+      <c r="E398" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="2">
+      <c r="F398" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="2">
+      <c r="G398" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="2">
+      <c r="H398" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="2">
+      <c r="I398" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11699,10 +11711,10 @@
       <c r="I401">
         <f>((C401-C400)^2+(D401- D400)^2)^.5</f>
       </c>
-      <c r="J401" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K401" s="2" t="s">
+      <c r="J401" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K401" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L401" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4384" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13152" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -373,10 +421,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -420,28 +468,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="4">
+      <c r="A10" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="4">
+      <c r="C10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="4">
+      <c r="E10" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="4">
+      <c r="F10" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="4">
+      <c r="G10" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="4">
+      <c r="H10" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -466,28 +514,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="D12" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="E12" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="4">
+      <c r="F12" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="4">
+      <c r="I12" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -575,10 +623,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="J15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -622,28 +670,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="4">
+      <c r="A17" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="4">
+      <c r="B17" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="4">
+      <c r="C17" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="4">
+      <c r="E17" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="4">
+      <c r="F17" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="4">
+      <c r="G17" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="4">
+      <c r="H17" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -668,28 +716,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="4">
+      <c r="D19" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="4">
+      <c r="G19" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="4">
+      <c r="H19" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="4">
+      <c r="I19" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -806,10 +854,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="J23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -853,28 +901,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="4">
+      <c r="A25" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="4">
+      <c r="B25" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="4">
+      <c r="C25" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="4">
+      <c r="E25" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="4">
+      <c r="F25" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="4">
+      <c r="G25" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="4">
+      <c r="H25" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -899,28 +947,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="4">
+      <c r="B27" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="4">
+      <c r="C27" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="4">
+      <c r="D27" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="4">
+      <c r="E27" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="4">
+      <c r="F27" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="4">
+      <c r="G27" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="4">
+      <c r="H27" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="4">
+      <c r="I27" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1008,10 +1056,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="J30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1055,28 +1103,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="4">
+      <c r="A32" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="4">
+      <c r="C32" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="4">
+      <c r="G32" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="4">
+      <c r="H32" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1101,28 +1149,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="4">
+      <c r="C34" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="4">
+      <c r="D34" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="4">
+      <c r="I34" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1181,10 +1229,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="J36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1228,28 +1276,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="4">
+      <c r="A38" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="4">
+      <c r="B38" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="4">
+      <c r="C38" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="4">
+      <c r="E38" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="4">
+      <c r="F38" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="4">
+      <c r="G38" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="4">
+      <c r="H38" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1274,28 +1322,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="4">
+      <c r="C40" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="4">
+      <c r="D40" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="4">
+      <c r="I40" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1354,10 +1402,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="4" t="s">
+      <c r="J42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1401,28 +1449,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="4">
+      <c r="A44" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="4">
+      <c r="C44" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1447,28 +1495,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="4">
+      <c r="C46" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="4">
+      <c r="D46" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="4">
+      <c r="I46" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1643,10 +1691,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="4" t="s">
+      <c r="J52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1690,28 +1738,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="4">
+      <c r="A54" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="4">
+      <c r="B54" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="4">
+      <c r="C54" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="4">
+      <c r="E54" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="4">
+      <c r="F54" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="4">
+      <c r="G54" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="4">
+      <c r="H54" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1736,28 +1784,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="4">
+      <c r="B56" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="4">
+      <c r="C56" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="4">
+      <c r="D56" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="4">
+      <c r="G56" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="4">
+      <c r="H56" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="4">
+      <c r="I56" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1845,10 +1893,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="4" t="s">
+      <c r="J59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1892,28 +1940,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="4">
+      <c r="A61" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="4">
+      <c r="C61" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1938,28 +1986,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="D63" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="4">
+      <c r="G63" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="4">
+      <c r="H63" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="4">
+      <c r="I63" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2047,10 +2095,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="4" t="s">
+      <c r="J66" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2094,28 +2142,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="4">
+      <c r="A68" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="4">
+      <c r="C68" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2140,28 +2188,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="4">
+      <c r="B70" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="4">
+      <c r="C70" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="4">
+      <c r="D70" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="4">
+      <c r="E70" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="4">
+      <c r="F70" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="4">
+      <c r="G70" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="4">
+      <c r="H70" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="4">
+      <c r="I70" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2220,10 +2268,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="4" t="s">
+      <c r="J72" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2267,28 +2315,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="4">
+      <c r="A74" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="4">
+      <c r="B74" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="4">
+      <c r="C74" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="4">
+      <c r="E74" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="4">
+      <c r="F74" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="4">
+      <c r="G74" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="4">
+      <c r="H74" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2313,28 +2361,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="4">
+      <c r="C76" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="4">
+      <c r="D76" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="4">
+      <c r="I76" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2393,10 +2441,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="4" t="s">
+      <c r="J78" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2440,28 +2488,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="4">
+      <c r="A80" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="4">
+      <c r="B80" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="4">
+      <c r="C80" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="4">
+      <c r="E80" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="4">
+      <c r="F80" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="4">
+      <c r="G80" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="4">
+      <c r="H80" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2486,28 +2534,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="4">
+      <c r="B82" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="4">
+      <c r="C82" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="4">
+      <c r="D82" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="4">
+      <c r="E82" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="4">
+      <c r="F82" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="4">
+      <c r="G82" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="4">
+      <c r="H82" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="4">
+      <c r="I82" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2566,10 +2614,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="4" t="s">
+      <c r="J84" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2613,28 +2661,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="4">
+      <c r="A86" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="4">
+      <c r="C86" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2659,28 +2707,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="4">
+      <c r="C88" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="4">
+      <c r="D88" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="4">
+      <c r="E88" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="4">
+      <c r="F88" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="4">
+      <c r="G88" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="4">
+      <c r="H88" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="4">
+      <c r="I88" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2797,10 +2845,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="4" t="s">
+      <c r="J92" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2844,28 +2892,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="4">
+      <c r="A94" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="4">
+      <c r="B94" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="4">
+      <c r="C94" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="4">
+      <c r="E94" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="4">
+      <c r="F94" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="4">
+      <c r="G94" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="4">
+      <c r="H94" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2890,28 +2938,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="4">
+      <c r="C96" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="4">
+      <c r="D96" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="4">
+      <c r="I96" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3028,10 +3076,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="4" t="s">
+      <c r="J100" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3075,28 +3123,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="4">
+      <c r="A102" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="4">
+      <c r="B102" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="4">
+      <c r="C102" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="4">
+      <c r="E102" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="4">
+      <c r="F102" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="4">
+      <c r="G102" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="4">
+      <c r="H102" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3121,28 +3169,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="4">
+      <c r="B104" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="4">
+      <c r="C104" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="4">
+      <c r="D104" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="4">
+      <c r="E104" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="4">
+      <c r="F104" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="4">
+      <c r="G104" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="4">
+      <c r="H104" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="4">
+      <c r="I104" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3201,10 +3249,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="4" t="s">
+      <c r="J106" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3248,28 +3296,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="4">
+      <c r="A108" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="4">
+      <c r="B108" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="4">
+      <c r="C108" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="4">
+      <c r="E108" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="4">
+      <c r="F108" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="4">
+      <c r="G108" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="4">
+      <c r="H108" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3294,28 +3342,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="4">
+      <c r="C110" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="4">
+      <c r="D110" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="4">
+      <c r="I110" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3374,10 +3422,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="4" t="s">
+      <c r="J112" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3421,28 +3469,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="4">
+      <c r="A114" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="4">
+      <c r="B114" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="4">
+      <c r="C114" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="4">
+      <c r="E114" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="4">
+      <c r="F114" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="4">
+      <c r="G114" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="4">
+      <c r="H114" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3467,28 +3515,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="4">
+      <c r="C116" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="4">
+      <c r="D116" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="4">
+      <c r="G116" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="4">
+      <c r="H116" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="4">
+      <c r="I116" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3547,10 +3595,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="4" t="s">
+      <c r="J118" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3594,28 +3642,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="4">
+      <c r="A120" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="4">
+      <c r="B120" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="4">
+      <c r="C120" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="4">
+      <c r="E120" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="4">
+      <c r="F120" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="4">
+      <c r="G120" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="4">
+      <c r="H120" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3640,28 +3688,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="4">
+      <c r="B122" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="4">
+      <c r="C122" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="4">
+      <c r="D122" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="4">
+      <c r="E122" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="4">
+      <c r="F122" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="4">
+      <c r="G122" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="4">
+      <c r="H122" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="4">
+      <c r="I122" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3720,10 +3768,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="4" t="s">
+      <c r="J124" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3767,28 +3815,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="4">
+      <c r="A126" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="4">
+      <c r="C126" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3813,28 +3861,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="4">
+      <c r="C128" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="4">
+      <c r="D128" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="4">
+      <c r="G128" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="4">
+      <c r="H128" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="4">
+      <c r="I128" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3893,10 +3941,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="4" t="s">
+      <c r="J130" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3940,28 +3988,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="4">
+      <c r="A132" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="4">
+      <c r="C132" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3986,28 +4034,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="4">
+      <c r="C134" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="4">
+      <c r="D134" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="4">
+      <c r="I134" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4124,10 +4172,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="4" t="s">
+      <c r="J138" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4171,28 +4219,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="4">
+      <c r="A140" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="4">
+      <c r="C140" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4217,28 +4265,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="4">
+      <c r="C142" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="4">
+      <c r="D142" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="4">
+      <c r="I142" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4297,10 +4345,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="4" t="s">
+      <c r="J144" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4344,28 +4392,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="4">
+      <c r="A146" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="4">
+      <c r="C146" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4390,28 +4438,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="4">
+      <c r="I148" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4470,10 +4518,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="4" t="s">
+      <c r="J150" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4517,28 +4565,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="4">
+      <c r="A152" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="4">
+      <c r="C152" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4563,28 +4611,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="4">
+      <c r="C154" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="4">
+      <c r="D154" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="4">
+      <c r="I154" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4643,10 +4691,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="4" t="s">
+      <c r="J156" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4690,28 +4738,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="4">
+      <c r="A158" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="4">
+      <c r="C158" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4736,28 +4784,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="4">
+      <c r="C160" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="4">
+      <c r="D160" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="4">
+      <c r="I160" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4816,10 +4864,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="4" t="s">
+      <c r="J162" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4863,28 +4911,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="4">
+      <c r="A164" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="4">
+      <c r="C164" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4909,28 +4957,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="4">
+      <c r="C166" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="4">
+      <c r="D166" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="4">
+      <c r="I166" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4989,10 +5037,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="4" t="s">
+      <c r="J168" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5036,28 +5084,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="4">
+      <c r="C170" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5082,28 +5130,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5162,10 +5210,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="4" t="s">
+      <c r="J174" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5209,28 +5257,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="4">
+      <c r="A176" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="4">
+      <c r="C176" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5255,28 +5303,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="4">
+      <c r="C178" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="4">
+      <c r="D178" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="4">
+      <c r="I178" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5451,10 +5499,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="4" t="s">
+      <c r="J184" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5498,28 +5546,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="4">
+      <c r="A186" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="4">
+      <c r="C186" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5544,28 +5592,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="4">
+      <c r="B188" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="4">
+      <c r="C188" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="4">
+      <c r="D188" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="4">
+      <c r="E188" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="4">
+      <c r="F188" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="4">
+      <c r="G188" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="4">
+      <c r="H188" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="4">
+      <c r="I188" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5653,10 +5701,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="4" t="s">
+      <c r="J191" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5700,28 +5748,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="4">
+      <c r="A193" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="4">
+      <c r="B193" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="4">
+      <c r="C193" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="4">
+      <c r="E193" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="4">
+      <c r="F193" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="4">
+      <c r="G193" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="4">
+      <c r="H193" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5746,28 +5794,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="4">
+      <c r="B195" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="4">
+      <c r="C195" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="4">
+      <c r="D195" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="4">
+      <c r="E195" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="4">
+      <c r="F195" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="4">
+      <c r="G195" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="4">
+      <c r="H195" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="4">
+      <c r="I195" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5942,10 +5990,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="4" t="s">
+      <c r="J201" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5989,28 +6037,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="4">
+      <c r="A203" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="4">
+      <c r="B203" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="4">
+      <c r="C203" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="4">
+      <c r="E203" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="4">
+      <c r="F203" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="4">
+      <c r="G203" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="4">
+      <c r="H203" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6035,28 +6083,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="4">
+      <c r="C205" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="4">
+      <c r="D205" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="4">
+      <c r="E205" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="4">
+      <c r="F205" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="4">
+      <c r="G205" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="4">
+      <c r="H205" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="4">
+      <c r="I205" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6202,10 +6250,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="4" t="s">
+      <c r="J210" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6249,28 +6297,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="4">
+      <c r="A212" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="4">
+      <c r="C212" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6295,28 +6343,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="4">
+      <c r="B214" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="4">
+      <c r="C214" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="4">
+      <c r="D214" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="4">
+      <c r="E214" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="4">
+      <c r="F214" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="4">
+      <c r="G214" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="4">
+      <c r="H214" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="4">
+      <c r="I214" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6375,10 +6423,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="4" t="s">
+      <c r="J216" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6422,28 +6470,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="4">
+      <c r="A218" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="4">
+      <c r="B218" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="4">
+      <c r="C218" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="4">
+      <c r="E218" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="4">
+      <c r="F218" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="4">
+      <c r="G218" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="4">
+      <c r="H218" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6468,28 +6516,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="4">
+      <c r="B220" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="4">
+      <c r="C220" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="4">
+      <c r="D220" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="4">
+      <c r="E220" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="4">
+      <c r="F220" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="4">
+      <c r="G220" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="4">
+      <c r="H220" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="4">
+      <c r="I220" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6548,10 +6596,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="4" t="s">
+      <c r="J222" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6595,28 +6643,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="4">
+      <c r="A224" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="4">
+      <c r="B224" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="4">
+      <c r="C224" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="4">
+      <c r="E224" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="4">
+      <c r="F224" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="4">
+      <c r="G224" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="4">
+      <c r="H224" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6641,28 +6689,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="4">
+      <c r="B226" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="4">
+      <c r="C226" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="4">
+      <c r="D226" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="4">
+      <c r="E226" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="4">
+      <c r="F226" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="4">
+      <c r="G226" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="4">
+      <c r="H226" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="4">
+      <c r="I226" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6721,10 +6769,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="4" t="s">
+      <c r="J228" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6768,28 +6816,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="4">
+      <c r="A230" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="4">
+      <c r="B230" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="4">
+      <c r="C230" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="4">
+      <c r="E230" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="4">
+      <c r="F230" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="4">
+      <c r="G230" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="4">
+      <c r="H230" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6814,28 +6862,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="4">
+      <c r="B232" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="4">
+      <c r="C232" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="4">
+      <c r="D232" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="4">
+      <c r="E232" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="4">
+      <c r="F232" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="4">
+      <c r="G232" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="4">
+      <c r="H232" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="4">
+      <c r="I232" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6894,10 +6942,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="4" t="s">
+      <c r="J234" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6941,28 +6989,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="4">
+      <c r="A236" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="4">
+      <c r="B236" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="4">
+      <c r="C236" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="4">
+      <c r="E236" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="4">
+      <c r="F236" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="4">
+      <c r="G236" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="4">
+      <c r="H236" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6987,28 +7035,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="4">
+      <c r="B238" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="4">
+      <c r="C238" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="4">
+      <c r="D238" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="4">
+      <c r="E238" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="4">
+      <c r="F238" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="4">
+      <c r="G238" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="4">
+      <c r="H238" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="4">
+      <c r="I238" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7096,10 +7144,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="4" t="s">
+      <c r="J241" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7143,28 +7191,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="4">
+      <c r="A243" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="4">
+      <c r="B243" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="4">
+      <c r="C243" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="4">
+      <c r="E243" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="4">
+      <c r="F243" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="4">
+      <c r="G243" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="4">
+      <c r="H243" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7189,28 +7237,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="4">
+      <c r="B245" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="4">
+      <c r="C245" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="4">
+      <c r="D245" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="4">
+      <c r="E245" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="4">
+      <c r="F245" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="4">
+      <c r="G245" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="4">
+      <c r="H245" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="4">
+      <c r="I245" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7269,10 +7317,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="4" t="s">
+      <c r="J247" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7316,28 +7364,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="4">
+      <c r="A249" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="4">
+      <c r="B249" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="4">
+      <c r="C249" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="4">
+      <c r="E249" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="4">
+      <c r="F249" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="4">
+      <c r="G249" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="4">
+      <c r="H249" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7362,28 +7410,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="4">
+      <c r="B251" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="4">
+      <c r="C251" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="4">
+      <c r="D251" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="4">
+      <c r="E251" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="4">
+      <c r="F251" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="4">
+      <c r="G251" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="4">
+      <c r="H251" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="4">
+      <c r="I251" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7442,10 +7490,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="4" t="s">
+      <c r="J253" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7489,28 +7537,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="4">
+      <c r="A255" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="4">
+      <c r="B255" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="4">
+      <c r="C255" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="4">
+      <c r="E255" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="4">
+      <c r="F255" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="4">
+      <c r="G255" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="4">
+      <c r="H255" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7535,28 +7583,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="4">
+      <c r="B257" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="4">
+      <c r="C257" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="4">
+      <c r="D257" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="4">
+      <c r="E257" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="4">
+      <c r="F257" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="4">
+      <c r="G257" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="4">
+      <c r="H257" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="4">
+      <c r="I257" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7644,10 +7692,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="4" t="s">
+      <c r="J260" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7691,28 +7739,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="4">
+      <c r="A262" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="4">
+      <c r="B262" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="4">
+      <c r="C262" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="4">
+      <c r="E262" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="4">
+      <c r="F262" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="4">
+      <c r="G262" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="4">
+      <c r="H262" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7737,28 +7785,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="4">
+      <c r="C264" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="4">
+      <c r="D264" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="4">
+      <c r="I264" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7817,10 +7865,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="4" t="s">
+      <c r="J266" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7864,28 +7912,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="4">
+      <c r="A268" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="4">
+      <c r="B268" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="4">
+      <c r="C268" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="4">
+      <c r="E268" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="4">
+      <c r="F268" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="4">
+      <c r="G268" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="4">
+      <c r="H268" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7910,28 +7958,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="4">
+      <c r="B270" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="4">
+      <c r="C270" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="4">
+      <c r="D270" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="4">
+      <c r="E270" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="4">
+      <c r="F270" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="4">
+      <c r="G270" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="4">
+      <c r="H270" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="4">
+      <c r="I270" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7990,10 +8038,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="4" t="s">
+      <c r="J272" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8037,28 +8085,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="4">
+      <c r="A274" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="4">
+      <c r="B274" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="4">
+      <c r="C274" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="4">
+      <c r="E274" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="4">
+      <c r="F274" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="4">
+      <c r="G274" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="4">
+      <c r="H274" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8083,28 +8131,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="4">
+      <c r="B276" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="4">
+      <c r="C276" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="4">
+      <c r="D276" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="4">
+      <c r="E276" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="4">
+      <c r="F276" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="4">
+      <c r="G276" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="4">
+      <c r="H276" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="4">
+      <c r="I276" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8163,10 +8211,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="4" t="s">
+      <c r="J278" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8210,28 +8258,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="4">
+      <c r="A280" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="4">
+      <c r="B280" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="4">
+      <c r="C280" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="4">
+      <c r="E280" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="4">
+      <c r="F280" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="4">
+      <c r="G280" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="4">
+      <c r="H280" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8256,28 +8304,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="4">
+      <c r="B282" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="4">
+      <c r="C282" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="4">
+      <c r="D282" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="4">
+      <c r="E282" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="4">
+      <c r="F282" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="4">
+      <c r="G282" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="4">
+      <c r="H282" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="4">
+      <c r="I282" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8336,10 +8384,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="4" t="s">
+      <c r="J284" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8383,28 +8431,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="4">
+      <c r="A286" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="4">
+      <c r="B286" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="4">
+      <c r="C286" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="4">
+      <c r="E286" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="4">
+      <c r="F286" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="4">
+      <c r="G286" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="4">
+      <c r="H286" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8429,28 +8477,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="4">
+      <c r="B288" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="4">
+      <c r="C288" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="4">
+      <c r="D288" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="4">
+      <c r="E288" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="4">
+      <c r="F288" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="4">
+      <c r="G288" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="4">
+      <c r="H288" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="4">
+      <c r="I288" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8509,10 +8557,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="4" t="s">
+      <c r="J290" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8556,28 +8604,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="4">
+      <c r="A292" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="4">
+      <c r="B292" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="4">
+      <c r="C292" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="4">
+      <c r="E292" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="4">
+      <c r="F292" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="4">
+      <c r="G292" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="4">
+      <c r="H292" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8602,28 +8650,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="4">
+      <c r="B294" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="4">
+      <c r="C294" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="4">
+      <c r="D294" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="4">
+      <c r="E294" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="4">
+      <c r="F294" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="4">
+      <c r="G294" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="4">
+      <c r="H294" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="4">
+      <c r="I294" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8711,10 +8759,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="4" t="s">
+      <c r="J297" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8758,28 +8806,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="4">
+      <c r="A299" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="4">
+      <c r="B299" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="4">
+      <c r="C299" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="4">
+      <c r="E299" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="4">
+      <c r="F299" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="4">
+      <c r="G299" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="4">
+      <c r="H299" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8804,28 +8852,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="4">
+      <c r="B301" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="4">
+      <c r="C301" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="4">
+      <c r="D301" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="4">
+      <c r="E301" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="4">
+      <c r="F301" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="4">
+      <c r="G301" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="4">
+      <c r="H301" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="4">
+      <c r="I301" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8884,10 +8932,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="4" t="s">
+      <c r="J303" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8931,28 +8979,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="4">
+      <c r="A305" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="4">
+      <c r="B305" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="4">
+      <c r="C305" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="4">
+      <c r="E305" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="4">
+      <c r="F305" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="4">
+      <c r="G305" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="4">
+      <c r="H305" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8977,28 +9025,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="4">
+      <c r="B307" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="4">
+      <c r="C307" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="4">
+      <c r="D307" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="4">
+      <c r="E307" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="4">
+      <c r="F307" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="4">
+      <c r="G307" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="4">
+      <c r="H307" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="4">
+      <c r="I307" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9057,10 +9105,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="4" t="s">
+      <c r="J309" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9104,28 +9152,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="4">
+      <c r="A311" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="4">
+      <c r="B311" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="4">
+      <c r="C311" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="4">
+      <c r="E311" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="4">
+      <c r="F311" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="4">
+      <c r="G311" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="4">
+      <c r="H311" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9150,28 +9198,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="4">
+      <c r="B313" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="4">
+      <c r="C313" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="4">
+      <c r="D313" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="4">
+      <c r="E313" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="4">
+      <c r="F313" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="4">
+      <c r="G313" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="4">
+      <c r="H313" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="4">
+      <c r="I313" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9259,10 +9307,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="4" t="s">
+      <c r="J316" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9306,28 +9354,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="4">
+      <c r="A318" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="4">
+      <c r="B318" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="4">
+      <c r="C318" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="4">
+      <c r="E318" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="4">
+      <c r="F318" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="4">
+      <c r="G318" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="4">
+      <c r="H318" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9352,28 +9400,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="4">
+      <c r="B320" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="4">
+      <c r="C320" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="4">
+      <c r="D320" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="4">
+      <c r="E320" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="4">
+      <c r="F320" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="4">
+      <c r="G320" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="4">
+      <c r="H320" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="4">
+      <c r="I320" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9432,10 +9480,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="4" t="s">
+      <c r="J322" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9479,28 +9527,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="4">
+      <c r="A324" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="4">
+      <c r="B324" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="4">
+      <c r="C324" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="4">
+      <c r="E324" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="4">
+      <c r="F324" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="4">
+      <c r="G324" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="4">
+      <c r="H324" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9525,28 +9573,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="4">
+      <c r="B326" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="4">
+      <c r="C326" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="4">
+      <c r="D326" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="4">
+      <c r="E326" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="4">
+      <c r="F326" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="4">
+      <c r="G326" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="4">
+      <c r="H326" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="4">
+      <c r="I326" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9663,10 +9711,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="4" t="s">
+      <c r="J330" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9710,28 +9758,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="4">
+      <c r="A332" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="4">
+      <c r="B332" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="4">
+      <c r="C332" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="4">
+      <c r="E332" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="4">
+      <c r="F332" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="4">
+      <c r="G332" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="4">
+      <c r="H332" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9756,28 +9804,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="4">
+      <c r="B334" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="4">
+      <c r="C334" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="4">
+      <c r="D334" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="4">
+      <c r="E334" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="4">
+      <c r="F334" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="4">
+      <c r="G334" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="4">
+      <c r="H334" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="4">
+      <c r="I334" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9865,10 +9913,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="4" t="s">
+      <c r="J337" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9912,28 +9960,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="4">
+      <c r="A339" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="4">
+      <c r="B339" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="4">
+      <c r="C339" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="4">
+      <c r="E339" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="4">
+      <c r="F339" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="4">
+      <c r="G339" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="4">
+      <c r="H339" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9958,28 +10006,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="4">
+      <c r="B341" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="4">
+      <c r="C341" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="4">
+      <c r="D341" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="4">
+      <c r="E341" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="4">
+      <c r="F341" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="4">
+      <c r="G341" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="4">
+      <c r="H341" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="4">
+      <c r="I341" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10038,10 +10086,10 @@
       <c r="I343">
         <f>((C343-C342)^2+(D343- D342)^2)^.5</f>
       </c>
-      <c r="J343" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K343" s="4" t="s">
+      <c r="J343" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K343" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L343" t="n">
@@ -10085,28 +10133,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="4">
+      <c r="A345" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B345" t="s" s="4">
+      <c r="B345" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C345" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D345" t="s" s="4">
+      <c r="C345" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E345" t="s" s="4">
+      <c r="E345" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F345" t="s" s="4">
+      <c r="F345" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G345" t="s" s="4">
+      <c r="G345" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H345" t="s" s="4">
+      <c r="H345" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10131,28 +10179,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="4">
+      <c r="B347" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C347" t="s" s="4">
+      <c r="C347" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D347" t="s" s="4">
+      <c r="D347" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E347" t="s" s="4">
+      <c r="E347" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F347" t="s" s="4">
+      <c r="F347" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G347" t="s" s="4">
+      <c r="G347" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H347" t="s" s="4">
+      <c r="H347" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I347" t="s" s="4">
+      <c r="I347" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10211,10 +10259,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="4" t="s">
+      <c r="J349" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10258,28 +10306,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="4">
+      <c r="A351" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="4">
+      <c r="B351" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="4">
+      <c r="C351" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="4">
+      <c r="E351" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="4">
+      <c r="F351" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="4">
+      <c r="G351" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="4">
+      <c r="H351" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10304,28 +10352,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="4">
+      <c r="B353" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="4">
+      <c r="C353" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="4">
+      <c r="D353" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="4">
+      <c r="E353" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="4">
+      <c r="F353" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="4">
+      <c r="G353" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="4">
+      <c r="H353" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="4">
+      <c r="I353" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10442,10 +10490,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="4" t="s">
+      <c r="J357" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10489,28 +10537,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="4">
+      <c r="A359" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="4">
+      <c r="B359" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="4">
+      <c r="C359" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="4">
+      <c r="E359" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="4">
+      <c r="F359" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="4">
+      <c r="G359" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="4">
+      <c r="H359" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10535,28 +10583,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="4">
+      <c r="B361" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="4">
+      <c r="C361" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="4">
+      <c r="D361" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="4">
+      <c r="E361" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="4">
+      <c r="F361" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="4">
+      <c r="G361" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="4">
+      <c r="H361" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="4">
+      <c r="I361" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10615,10 +10663,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="4" t="s">
+      <c r="J363" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10662,28 +10710,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="4">
+      <c r="A365" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="4">
+      <c r="B365" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="4">
+      <c r="C365" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="4">
+      <c r="E365" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="4">
+      <c r="F365" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="4">
+      <c r="G365" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="4">
+      <c r="H365" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10708,28 +10756,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="4">
+      <c r="B367" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="4">
+      <c r="C367" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="4">
+      <c r="D367" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="4">
+      <c r="E367" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="4">
+      <c r="F367" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="4">
+      <c r="G367" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="4">
+      <c r="H367" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="4">
+      <c r="I367" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10788,10 +10836,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="4" t="s">
+      <c r="J369" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10835,28 +10883,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="4">
+      <c r="A371" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="4">
+      <c r="B371" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="4">
+      <c r="C371" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="4">
+      <c r="E371" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="4">
+      <c r="F371" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="4">
+      <c r="G371" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="4">
+      <c r="H371" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10881,28 +10929,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="4">
+      <c r="B373" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="4">
+      <c r="C373" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="4">
+      <c r="D373" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="4">
+      <c r="E373" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="4">
+      <c r="F373" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="4">
+      <c r="G373" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="4">
+      <c r="H373" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="4">
+      <c r="I373" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10961,10 +11009,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="4" t="s">
+      <c r="J375" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -11008,28 +11056,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="4">
+      <c r="A377" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="4">
+      <c r="B377" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="4">
+      <c r="C377" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="4">
+      <c r="E377" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="4">
+      <c r="F377" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="4">
+      <c r="G377" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="4">
+      <c r="H377" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11054,28 +11102,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="4">
+      <c r="B379" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="4">
+      <c r="C379" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="4">
+      <c r="D379" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="4">
+      <c r="E379" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="4">
+      <c r="F379" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="4">
+      <c r="G379" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="4">
+      <c r="H379" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="4">
+      <c r="I379" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11134,10 +11182,10 @@
       <c r="I381">
         <f>((C381-C380)^2+(D381- D380)^2)^.5</f>
       </c>
-      <c r="J381" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K381" s="4" t="s">
+      <c r="J381" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L381" t="n">
@@ -11181,28 +11229,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="s" s="4">
+      <c r="A383" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B383" t="s" s="4">
+      <c r="B383" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C383" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D383" t="s" s="4">
+      <c r="C383" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E383" t="s" s="4">
+      <c r="E383" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F383" t="s" s="4">
+      <c r="F383" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G383" t="s" s="4">
+      <c r="G383" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H383" t="s" s="4">
+      <c r="H383" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11227,28 +11275,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="B385" t="s" s="4">
+      <c r="B385" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C385" t="s" s="4">
+      <c r="C385" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D385" t="s" s="4">
+      <c r="D385" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E385" t="s" s="4">
+      <c r="E385" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F385" t="s" s="4">
+      <c r="F385" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G385" t="s" s="4">
+      <c r="G385" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H385" t="s" s="4">
+      <c r="H385" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I385" t="s" s="4">
+      <c r="I385" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11336,10 +11384,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="4" t="s">
+      <c r="J388" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11383,28 +11431,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="4">
+      <c r="A390" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="4">
+      <c r="B390" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="4">
+      <c r="C390" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="4">
+      <c r="E390" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="4">
+      <c r="F390" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="4">
+      <c r="G390" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="4">
+      <c r="H390" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11429,28 +11477,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="4">
+      <c r="B392" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="4">
+      <c r="C392" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="4">
+      <c r="D392" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="4">
+      <c r="E392" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="4">
+      <c r="F392" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="4">
+      <c r="G392" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="4">
+      <c r="H392" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="4">
+      <c r="I392" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11509,10 +11557,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="4" t="s">
+      <c r="J394" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11556,28 +11604,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="4">
+      <c r="A396" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="4">
+      <c r="B396" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="4">
+      <c r="C396" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="4">
+      <c r="E396" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="4">
+      <c r="F396" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="4">
+      <c r="G396" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="4">
+      <c r="H396" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11602,28 +11650,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="4">
+      <c r="B398" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="4">
+      <c r="C398" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="4">
+      <c r="D398" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="4">
+      <c r="E398" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="4">
+      <c r="F398" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="4">
+      <c r="G398" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="4">
+      <c r="H398" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="4">
+      <c r="I398" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11711,10 +11759,10 @@
       <c r="I401">
         <f>((C401-C400)^2+(D401- D400)^2)^.5</f>
       </c>
-      <c r="J401" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K401" s="4" t="s">
+      <c r="J401" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K401" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L401" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13152" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16440" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -421,10 +439,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="12" t="s">
+      <c r="J8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -468,28 +486,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="12">
+      <c r="A10" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="12">
+      <c r="B10" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="12">
+      <c r="C10" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="12">
+      <c r="E10" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="12">
+      <c r="F10" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="12">
+      <c r="G10" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="12">
+      <c r="H10" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -514,28 +532,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="12">
+      <c r="B12" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="12">
+      <c r="D12" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="E12" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="12">
+      <c r="F12" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="12">
+      <c r="H12" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="12">
+      <c r="I12" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -623,10 +641,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="12" t="s">
+      <c r="J15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -670,28 +688,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="12">
+      <c r="A17" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="12">
+      <c r="B17" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="12">
+      <c r="C17" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="12">
+      <c r="E17" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="12">
+      <c r="F17" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="12">
+      <c r="G17" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="12">
+      <c r="H17" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -716,28 +734,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="12">
+      <c r="C19" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="12">
+      <c r="D19" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="F19" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="12">
+      <c r="G19" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="12">
+      <c r="H19" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="12">
+      <c r="I19" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -854,10 +872,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="12" t="s">
+      <c r="J23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -901,28 +919,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="12">
+      <c r="A25" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="12">
+      <c r="B25" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="12">
+      <c r="C25" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="12">
+      <c r="E25" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="12">
+      <c r="F25" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="12">
+      <c r="G25" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="12">
+      <c r="H25" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -947,28 +965,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="12">
+      <c r="B27" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="12">
+      <c r="C27" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="12">
+      <c r="D27" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="12">
+      <c r="E27" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="12">
+      <c r="F27" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="12">
+      <c r="G27" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="12">
+      <c r="H27" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="12">
+      <c r="I27" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1056,10 +1074,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="12" t="s">
+      <c r="J30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1103,28 +1121,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="12">
+      <c r="A32" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="12">
+      <c r="B32" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="12">
+      <c r="C32" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F32" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1149,28 +1167,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="12">
+      <c r="C34" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="12">
+      <c r="D34" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="12">
+      <c r="I34" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1229,10 +1247,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="12" t="s">
+      <c r="J36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1276,28 +1294,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="12">
+      <c r="A38" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="12">
+      <c r="B38" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="12">
+      <c r="C38" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="12">
+      <c r="E38" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="12">
+      <c r="F38" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="12">
+      <c r="G38" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="12">
+      <c r="H38" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1322,28 +1340,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="12">
+      <c r="C40" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="12">
+      <c r="D40" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="12">
+      <c r="I40" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1402,10 +1420,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="12" t="s">
+      <c r="J42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1449,28 +1467,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="12">
+      <c r="A44" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="12">
+      <c r="C44" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1495,28 +1513,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="12">
+      <c r="C46" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="12">
+      <c r="D46" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="12">
+      <c r="I46" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1709,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="12" t="s">
+      <c r="J52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1738,28 +1756,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="12">
+      <c r="A54" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="12">
+      <c r="B54" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="12">
+      <c r="C54" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="12">
+      <c r="E54" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="12">
+      <c r="F54" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="12">
+      <c r="G54" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="12">
+      <c r="H54" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1802,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="12">
+      <c r="C56" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="12">
+      <c r="D56" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="12">
+      <c r="E56" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="12">
+      <c r="F56" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="12">
+      <c r="G56" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="12">
+      <c r="I56" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1893,10 +1911,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="12" t="s">
+      <c r="J59" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1940,28 +1958,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="12">
+      <c r="A61" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="12">
+      <c r="C61" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1986,28 +2004,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="12">
+      <c r="B63" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="12">
+      <c r="C63" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="12">
+      <c r="D63" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="12">
+      <c r="F63" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="12">
+      <c r="G63" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="12">
+      <c r="I63" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2095,10 +2113,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="12" t="s">
+      <c r="J66" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2142,28 +2160,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="12">
+      <c r="A68" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="12">
+      <c r="C68" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2188,28 +2206,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="12">
+      <c r="B70" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="12">
+      <c r="C70" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="12">
+      <c r="D70" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="12">
+      <c r="E70" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="12">
+      <c r="F70" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="12">
+      <c r="G70" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="12">
+      <c r="H70" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="12">
+      <c r="I70" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2268,10 +2286,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="12" t="s">
+      <c r="J72" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2315,28 +2333,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="12">
+      <c r="A74" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="12">
+      <c r="B74" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="12">
+      <c r="C74" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="12">
+      <c r="E74" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="12">
+      <c r="F74" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="12">
+      <c r="G74" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="12">
+      <c r="H74" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2361,28 +2379,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="12">
+      <c r="C76" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="12">
+      <c r="D76" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="12">
+      <c r="I76" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2441,10 +2459,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="12" t="s">
+      <c r="J78" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2488,28 +2506,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="12">
+      <c r="A80" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="12">
+      <c r="B80" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="12">
+      <c r="C80" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="12">
+      <c r="E80" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="12">
+      <c r="F80" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="12">
+      <c r="G80" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="12">
+      <c r="H80" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2534,28 +2552,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="12">
+      <c r="B82" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="12">
+      <c r="C82" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="12">
+      <c r="D82" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="12">
+      <c r="E82" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="12">
+      <c r="F82" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="12">
+      <c r="G82" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="12">
+      <c r="H82" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="12">
+      <c r="I82" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2614,10 +2632,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="12" t="s">
+      <c r="J84" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2661,28 +2679,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="12">
+      <c r="A86" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="12">
+      <c r="C86" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2707,28 +2725,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="12">
+      <c r="B88" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="12">
+      <c r="C88" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="12">
+      <c r="D88" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="12">
+      <c r="E88" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="12">
+      <c r="F88" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="12">
+      <c r="G88" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="12">
+      <c r="H88" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="12">
+      <c r="I88" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2845,10 +2863,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="12" t="s">
+      <c r="J92" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2892,28 +2910,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="12">
+      <c r="A94" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="12">
+      <c r="B94" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="12">
+      <c r="C94" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="12">
+      <c r="E94" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="12">
+      <c r="F94" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="12">
+      <c r="G94" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="12">
+      <c r="H94" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2938,28 +2956,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="12">
+      <c r="C96" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="12">
+      <c r="D96" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="12">
+      <c r="I96" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3076,10 +3094,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="12" t="s">
+      <c r="J100" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3123,28 +3141,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="12">
+      <c r="A102" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="12">
+      <c r="B102" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="12">
+      <c r="C102" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="12">
+      <c r="E102" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="12">
+      <c r="F102" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="12">
+      <c r="G102" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="12">
+      <c r="H102" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3169,28 +3187,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="12">
+      <c r="B104" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="12">
+      <c r="C104" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="12">
+      <c r="D104" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="12">
+      <c r="E104" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="12">
+      <c r="F104" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="12">
+      <c r="G104" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="12">
+      <c r="H104" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="12">
+      <c r="I104" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3249,10 +3267,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="12" t="s">
+      <c r="J106" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3296,28 +3314,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="12">
+      <c r="A108" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="12">
+      <c r="C108" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="12">
+      <c r="E108" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="12">
+      <c r="F108" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="12">
+      <c r="G108" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="12">
+      <c r="H108" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3342,28 +3360,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="12">
+      <c r="C110" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="12">
+      <c r="D110" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="12">
+      <c r="I110" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3422,10 +3440,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="12" t="s">
+      <c r="J112" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3469,28 +3487,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="12">
+      <c r="A114" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="12">
+      <c r="B114" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="12">
+      <c r="C114" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="12">
+      <c r="E114" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="12">
+      <c r="F114" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="12">
+      <c r="G114" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="12">
+      <c r="H114" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3515,28 +3533,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="12">
+      <c r="C116" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="12">
+      <c r="D116" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="12">
+      <c r="F116" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="12">
+      <c r="I116" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3595,10 +3613,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="12" t="s">
+      <c r="J118" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3642,28 +3660,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="12">
+      <c r="A120" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="12">
+      <c r="B120" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="12">
+      <c r="C120" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="12">
+      <c r="E120" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="12">
+      <c r="F120" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="12">
+      <c r="G120" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="12">
+      <c r="H120" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3688,28 +3706,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="12">
+      <c r="B122" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="12">
+      <c r="C122" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="12">
+      <c r="D122" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="12">
+      <c r="E122" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="12">
+      <c r="F122" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="12">
+      <c r="G122" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="12">
+      <c r="H122" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="12">
+      <c r="I122" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3768,10 +3786,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="12" t="s">
+      <c r="J124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3815,28 +3833,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="12">
+      <c r="A126" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="12">
+      <c r="C126" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3861,28 +3879,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="12">
+      <c r="B128" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="12">
+      <c r="C128" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="12">
+      <c r="D128" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="12">
+      <c r="E128" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="12">
+      <c r="F128" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="12">
+      <c r="H128" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="12">
+      <c r="I128" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3941,10 +3959,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="12" t="s">
+      <c r="J130" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3988,28 +4006,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="12">
+      <c r="A132" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="12">
+      <c r="C132" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4034,28 +4052,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="12">
+      <c r="C134" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="12">
+      <c r="D134" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="12">
+      <c r="I134" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4172,10 +4190,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="12" t="s">
+      <c r="J138" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4219,28 +4237,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="12">
+      <c r="A140" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="12">
+      <c r="C140" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4265,28 +4283,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="12">
+      <c r="C142" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="12">
+      <c r="D142" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="12">
+      <c r="I142" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4345,10 +4363,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="12" t="s">
+      <c r="J144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4392,28 +4410,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="12">
+      <c r="A146" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="12">
+      <c r="C146" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4438,28 +4456,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="12">
+      <c r="I148" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4518,10 +4536,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="12" t="s">
+      <c r="J150" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4565,28 +4583,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="12">
+      <c r="A152" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="12">
+      <c r="C152" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4611,28 +4629,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="12">
+      <c r="C154" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="12">
+      <c r="D154" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="12">
+      <c r="I154" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4691,10 +4709,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="12" t="s">
+      <c r="J156" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4738,28 +4756,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="12">
+      <c r="A158" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="12">
+      <c r="C158" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4784,28 +4802,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="12">
+      <c r="C160" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="12">
+      <c r="D160" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="12">
+      <c r="I160" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4864,10 +4882,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="12" t="s">
+      <c r="J162" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4911,28 +4929,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="12">
+      <c r="A164" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="12">
+      <c r="C164" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4957,28 +4975,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="12">
+      <c r="C166" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="12">
+      <c r="D166" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="12">
+      <c r="I166" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5037,10 +5055,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="12" t="s">
+      <c r="J168" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5084,28 +5102,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="12">
+      <c r="C170" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5130,28 +5148,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5210,10 +5228,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="12" t="s">
+      <c r="J174" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5257,28 +5275,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="12">
+      <c r="A176" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="12">
+      <c r="C176" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5303,28 +5321,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="12">
+      <c r="C178" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="12">
+      <c r="D178" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="12">
+      <c r="I178" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5499,10 +5517,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="12" t="s">
+      <c r="J184" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5546,28 +5564,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="12">
+      <c r="A186" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="12">
+      <c r="C186" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5592,28 +5610,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="12">
+      <c r="B188" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="12">
+      <c r="C188" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="12">
+      <c r="D188" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="12">
+      <c r="E188" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="12">
+      <c r="F188" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="12">
+      <c r="G188" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="12">
+      <c r="H188" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="12">
+      <c r="I188" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5701,10 +5719,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="12" t="s">
+      <c r="J191" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5748,28 +5766,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="12">
+      <c r="A193" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="12">
+      <c r="B193" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="12">
+      <c r="C193" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="12">
+      <c r="E193" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="12">
+      <c r="F193" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="12">
+      <c r="G193" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="12">
+      <c r="H193" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5794,28 +5812,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="12">
+      <c r="B195" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="12">
+      <c r="C195" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="12">
+      <c r="D195" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="12">
+      <c r="E195" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="12">
+      <c r="F195" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="12">
+      <c r="G195" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="12">
+      <c r="H195" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="12">
+      <c r="I195" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5990,10 +6008,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="12" t="s">
+      <c r="J201" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -6037,28 +6055,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="12">
+      <c r="A203" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="12">
+      <c r="B203" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="12">
+      <c r="C203" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="12">
+      <c r="E203" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="12">
+      <c r="F203" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="12">
+      <c r="G203" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="12">
+      <c r="H203" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6083,28 +6101,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="12">
+      <c r="C205" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="12">
+      <c r="D205" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="12">
+      <c r="E205" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="12">
+      <c r="F205" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="12">
+      <c r="G205" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="12">
+      <c r="H205" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="12">
+      <c r="I205" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6250,10 +6268,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="12" t="s">
+      <c r="J210" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6297,28 +6315,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="12">
+      <c r="A212" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="12">
+      <c r="C212" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6343,28 +6361,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="12">
+      <c r="B214" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="12">
+      <c r="C214" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="12">
+      <c r="D214" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="12">
+      <c r="E214" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="12">
+      <c r="F214" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="12">
+      <c r="G214" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="12">
+      <c r="H214" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="12">
+      <c r="I214" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6423,10 +6441,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="12" t="s">
+      <c r="J216" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6470,28 +6488,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="12">
+      <c r="A218" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="12">
+      <c r="B218" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="12">
+      <c r="C218" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="12">
+      <c r="E218" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="12">
+      <c r="F218" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="12">
+      <c r="G218" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="12">
+      <c r="H218" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6516,28 +6534,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="12">
+      <c r="B220" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="12">
+      <c r="C220" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="12">
+      <c r="D220" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="12">
+      <c r="E220" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="12">
+      <c r="F220" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="12">
+      <c r="G220" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="12">
+      <c r="H220" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="12">
+      <c r="I220" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6596,10 +6614,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="12" t="s">
+      <c r="J222" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6643,28 +6661,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="12">
+      <c r="A224" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="12">
+      <c r="B224" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="12">
+      <c r="C224" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="12">
+      <c r="E224" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="12">
+      <c r="F224" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="12">
+      <c r="G224" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="12">
+      <c r="H224" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6689,28 +6707,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="12">
+      <c r="B226" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="12">
+      <c r="C226" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="12">
+      <c r="D226" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="12">
+      <c r="E226" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="12">
+      <c r="F226" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="12">
+      <c r="G226" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="12">
+      <c r="H226" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="12">
+      <c r="I226" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6769,10 +6787,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="12" t="s">
+      <c r="J228" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6816,28 +6834,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="12">
+      <c r="A230" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="12">
+      <c r="B230" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="12">
+      <c r="C230" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="12">
+      <c r="E230" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="12">
+      <c r="F230" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="12">
+      <c r="G230" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="12">
+      <c r="H230" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6862,28 +6880,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="12">
+      <c r="B232" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="12">
+      <c r="C232" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="12">
+      <c r="D232" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="12">
+      <c r="E232" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="12">
+      <c r="F232" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="12">
+      <c r="G232" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="12">
+      <c r="H232" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="12">
+      <c r="I232" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6942,10 +6960,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="12" t="s">
+      <c r="J234" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6989,28 +7007,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="12">
+      <c r="A236" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="12">
+      <c r="B236" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="12">
+      <c r="C236" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="12">
+      <c r="E236" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="12">
+      <c r="F236" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="12">
+      <c r="G236" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="12">
+      <c r="H236" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7035,28 +7053,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="12">
+      <c r="B238" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="12">
+      <c r="C238" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="12">
+      <c r="D238" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="12">
+      <c r="E238" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="12">
+      <c r="F238" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="12">
+      <c r="G238" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="12">
+      <c r="H238" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="12">
+      <c r="I238" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7144,10 +7162,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="12" t="s">
+      <c r="J241" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7191,28 +7209,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="12">
+      <c r="A243" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="12">
+      <c r="B243" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="12">
+      <c r="C243" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="12">
+      <c r="E243" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="12">
+      <c r="F243" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="12">
+      <c r="G243" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="12">
+      <c r="H243" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7237,28 +7255,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="12">
+      <c r="B245" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="12">
+      <c r="C245" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="12">
+      <c r="D245" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="12">
+      <c r="E245" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="12">
+      <c r="F245" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="12">
+      <c r="G245" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="12">
+      <c r="H245" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="12">
+      <c r="I245" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7317,10 +7335,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="12" t="s">
+      <c r="J247" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7364,28 +7382,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="12">
+      <c r="A249" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="12">
+      <c r="B249" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="12">
+      <c r="C249" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="12">
+      <c r="E249" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="12">
+      <c r="F249" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="12">
+      <c r="G249" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="12">
+      <c r="H249" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7410,28 +7428,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="12">
+      <c r="B251" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="12">
+      <c r="C251" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="12">
+      <c r="D251" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="12">
+      <c r="E251" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="12">
+      <c r="F251" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="12">
+      <c r="G251" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="12">
+      <c r="H251" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="12">
+      <c r="I251" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7490,10 +7508,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="12" t="s">
+      <c r="J253" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7537,28 +7555,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="12">
+      <c r="A255" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="12">
+      <c r="B255" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="12">
+      <c r="C255" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="12">
+      <c r="E255" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="12">
+      <c r="F255" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="12">
+      <c r="G255" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="12">
+      <c r="H255" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7583,28 +7601,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="12">
+      <c r="B257" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="12">
+      <c r="C257" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="12">
+      <c r="D257" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="12">
+      <c r="E257" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="12">
+      <c r="F257" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="12">
+      <c r="G257" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="12">
+      <c r="H257" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="12">
+      <c r="I257" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7692,10 +7710,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="12" t="s">
+      <c r="J260" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7739,28 +7757,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="12">
+      <c r="A262" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="12">
+      <c r="C262" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="12">
+      <c r="E262" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="12">
+      <c r="F262" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="12">
+      <c r="G262" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="12">
+      <c r="H262" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7785,28 +7803,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="12">
+      <c r="C264" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="12">
+      <c r="D264" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="12">
+      <c r="I264" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7865,10 +7883,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="12" t="s">
+      <c r="J266" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7912,28 +7930,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="12">
+      <c r="A268" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="12">
+      <c r="B268" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="12">
+      <c r="C268" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="12">
+      <c r="E268" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="12">
+      <c r="F268" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="12">
+      <c r="G268" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="12">
+      <c r="H268" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7958,28 +7976,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="12">
+      <c r="B270" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="12">
+      <c r="C270" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="12">
+      <c r="D270" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="12">
+      <c r="E270" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="12">
+      <c r="F270" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="12">
+      <c r="G270" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="12">
+      <c r="H270" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="12">
+      <c r="I270" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8038,10 +8056,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="12" t="s">
+      <c r="J272" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8085,28 +8103,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="12">
+      <c r="A274" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="12">
+      <c r="B274" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="12">
+      <c r="C274" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="12">
+      <c r="E274" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="12">
+      <c r="F274" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="12">
+      <c r="G274" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="12">
+      <c r="H274" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8131,28 +8149,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="12">
+      <c r="B276" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="12">
+      <c r="C276" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="12">
+      <c r="D276" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="12">
+      <c r="E276" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="12">
+      <c r="F276" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="12">
+      <c r="G276" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="12">
+      <c r="H276" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="12">
+      <c r="I276" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8211,10 +8229,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="12" t="s">
+      <c r="J278" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8258,28 +8276,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="12">
+      <c r="A280" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="12">
+      <c r="B280" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="12">
+      <c r="C280" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="12">
+      <c r="E280" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="12">
+      <c r="F280" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="12">
+      <c r="G280" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="12">
+      <c r="H280" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8304,28 +8322,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="12">
+      <c r="B282" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="12">
+      <c r="C282" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="12">
+      <c r="D282" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="12">
+      <c r="E282" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="12">
+      <c r="F282" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="12">
+      <c r="G282" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="12">
+      <c r="H282" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="12">
+      <c r="I282" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8384,10 +8402,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="12" t="s">
+      <c r="J284" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8431,28 +8449,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="12">
+      <c r="A286" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="12">
+      <c r="B286" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="12">
+      <c r="C286" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="12">
+      <c r="E286" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="12">
+      <c r="F286" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="12">
+      <c r="G286" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="12">
+      <c r="H286" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8477,28 +8495,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="12">
+      <c r="B288" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="12">
+      <c r="C288" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="12">
+      <c r="D288" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="12">
+      <c r="E288" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="12">
+      <c r="F288" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="12">
+      <c r="G288" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="12">
+      <c r="H288" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="12">
+      <c r="I288" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8557,10 +8575,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="12" t="s">
+      <c r="J290" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8604,28 +8622,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="12">
+      <c r="A292" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="12">
+      <c r="B292" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="12">
+      <c r="C292" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="12">
+      <c r="E292" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="12">
+      <c r="F292" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="12">
+      <c r="G292" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="12">
+      <c r="H292" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8650,28 +8668,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="12">
+      <c r="B294" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="12">
+      <c r="C294" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="12">
+      <c r="D294" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="12">
+      <c r="E294" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="12">
+      <c r="F294" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="12">
+      <c r="G294" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="12">
+      <c r="H294" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="12">
+      <c r="I294" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8759,10 +8777,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="12" t="s">
+      <c r="J297" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8806,28 +8824,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="12">
+      <c r="A299" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="12">
+      <c r="B299" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="12">
+      <c r="C299" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="12">
+      <c r="E299" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="12">
+      <c r="F299" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="12">
+      <c r="G299" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="12">
+      <c r="H299" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8852,28 +8870,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="12">
+      <c r="B301" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="12">
+      <c r="C301" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="12">
+      <c r="D301" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="12">
+      <c r="E301" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="12">
+      <c r="F301" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="12">
+      <c r="G301" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="12">
+      <c r="H301" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="12">
+      <c r="I301" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8932,10 +8950,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="12" t="s">
+      <c r="J303" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8979,28 +8997,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="12">
+      <c r="A305" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="12">
+      <c r="B305" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="12">
+      <c r="C305" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="12">
+      <c r="E305" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="12">
+      <c r="F305" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="12">
+      <c r="G305" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="12">
+      <c r="H305" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9025,28 +9043,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="12">
+      <c r="B307" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="12">
+      <c r="C307" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="12">
+      <c r="D307" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="12">
+      <c r="E307" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="12">
+      <c r="F307" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="12">
+      <c r="G307" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="12">
+      <c r="H307" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="12">
+      <c r="I307" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9105,10 +9123,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="12" t="s">
+      <c r="J309" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9152,28 +9170,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="12">
+      <c r="A311" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="12">
+      <c r="B311" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="12">
+      <c r="C311" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="12">
+      <c r="E311" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="12">
+      <c r="F311" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="12">
+      <c r="G311" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="12">
+      <c r="H311" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9198,28 +9216,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="12">
+      <c r="B313" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="12">
+      <c r="C313" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="12">
+      <c r="D313" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="12">
+      <c r="E313" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="12">
+      <c r="F313" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="12">
+      <c r="G313" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="12">
+      <c r="H313" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="12">
+      <c r="I313" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9307,10 +9325,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="12" t="s">
+      <c r="J316" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9354,28 +9372,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="12">
+      <c r="A318" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="12">
+      <c r="B318" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="12">
+      <c r="C318" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="12">
+      <c r="E318" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="12">
+      <c r="F318" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="12">
+      <c r="G318" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="12">
+      <c r="H318" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9400,28 +9418,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="12">
+      <c r="B320" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="12">
+      <c r="C320" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="12">
+      <c r="D320" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="12">
+      <c r="E320" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="12">
+      <c r="F320" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="12">
+      <c r="G320" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="12">
+      <c r="H320" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="12">
+      <c r="I320" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9480,10 +9498,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="12" t="s">
+      <c r="J322" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9527,28 +9545,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="12">
+      <c r="A324" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="12">
+      <c r="B324" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="12">
+      <c r="C324" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="12">
+      <c r="E324" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="12">
+      <c r="F324" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="12">
+      <c r="G324" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="12">
+      <c r="H324" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9573,28 +9591,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="12">
+      <c r="B326" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="12">
+      <c r="C326" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="12">
+      <c r="D326" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="12">
+      <c r="E326" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="12">
+      <c r="F326" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="12">
+      <c r="G326" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="12">
+      <c r="H326" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="12">
+      <c r="I326" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9711,10 +9729,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="12" t="s">
+      <c r="J330" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9758,28 +9776,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="12">
+      <c r="A332" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="12">
+      <c r="B332" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="12">
+      <c r="C332" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="12">
+      <c r="E332" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="12">
+      <c r="F332" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="12">
+      <c r="G332" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="12">
+      <c r="H332" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9804,28 +9822,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="12">
+      <c r="B334" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="12">
+      <c r="C334" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="12">
+      <c r="D334" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="12">
+      <c r="E334" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="12">
+      <c r="F334" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="12">
+      <c r="G334" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="12">
+      <c r="H334" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="12">
+      <c r="I334" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9913,10 +9931,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="12" t="s">
+      <c r="J337" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9960,28 +9978,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="12">
+      <c r="A339" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="12">
+      <c r="B339" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="12">
+      <c r="C339" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="12">
+      <c r="E339" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="12">
+      <c r="F339" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="12">
+      <c r="G339" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="12">
+      <c r="H339" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10006,28 +10024,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="12">
+      <c r="B341" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="12">
+      <c r="C341" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="12">
+      <c r="D341" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="12">
+      <c r="E341" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="12">
+      <c r="F341" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="12">
+      <c r="G341" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="12">
+      <c r="H341" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="12">
+      <c r="I341" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10086,10 +10104,10 @@
       <c r="I343">
         <f>((C343-C342)^2+(D343- D342)^2)^.5</f>
       </c>
-      <c r="J343" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K343" s="12" t="s">
+      <c r="J343" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K343" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L343" t="n">
@@ -10133,28 +10151,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="12">
+      <c r="A345" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B345" t="s" s="12">
+      <c r="B345" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C345" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D345" t="s" s="12">
+      <c r="C345" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E345" t="s" s="12">
+      <c r="E345" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F345" t="s" s="12">
+      <c r="F345" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G345" t="s" s="12">
+      <c r="G345" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H345" t="s" s="12">
+      <c r="H345" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10179,28 +10197,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="12">
+      <c r="B347" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C347" t="s" s="12">
+      <c r="C347" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D347" t="s" s="12">
+      <c r="D347" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E347" t="s" s="12">
+      <c r="E347" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F347" t="s" s="12">
+      <c r="F347" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G347" t="s" s="12">
+      <c r="G347" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H347" t="s" s="12">
+      <c r="H347" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I347" t="s" s="12">
+      <c r="I347" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10259,10 +10277,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="12" t="s">
+      <c r="J349" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10306,28 +10324,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="12">
+      <c r="A351" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="12">
+      <c r="B351" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="12">
+      <c r="C351" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="12">
+      <c r="E351" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="12">
+      <c r="F351" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="12">
+      <c r="G351" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="12">
+      <c r="H351" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10352,28 +10370,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="12">
+      <c r="B353" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="12">
+      <c r="C353" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="12">
+      <c r="D353" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="12">
+      <c r="E353" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="12">
+      <c r="F353" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="12">
+      <c r="G353" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="12">
+      <c r="H353" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="12">
+      <c r="I353" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10490,10 +10508,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="12" t="s">
+      <c r="J357" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10537,28 +10555,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="12">
+      <c r="A359" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="12">
+      <c r="B359" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="12">
+      <c r="C359" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="12">
+      <c r="E359" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="12">
+      <c r="F359" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="12">
+      <c r="G359" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="12">
+      <c r="H359" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10583,28 +10601,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="12">
+      <c r="B361" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="12">
+      <c r="C361" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="12">
+      <c r="D361" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="12">
+      <c r="E361" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="12">
+      <c r="F361" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="12">
+      <c r="G361" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="12">
+      <c r="H361" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="12">
+      <c r="I361" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10663,10 +10681,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="12" t="s">
+      <c r="J363" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10710,28 +10728,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="12">
+      <c r="A365" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="12">
+      <c r="B365" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="12">
+      <c r="C365" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="12">
+      <c r="E365" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="12">
+      <c r="F365" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="12">
+      <c r="G365" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="12">
+      <c r="H365" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10756,28 +10774,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="12">
+      <c r="B367" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="12">
+      <c r="C367" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="12">
+      <c r="D367" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="12">
+      <c r="E367" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="12">
+      <c r="F367" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="12">
+      <c r="G367" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="12">
+      <c r="H367" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="12">
+      <c r="I367" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10836,10 +10854,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="12" t="s">
+      <c r="J369" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10883,28 +10901,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="12">
+      <c r="A371" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="12">
+      <c r="B371" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="12">
+      <c r="C371" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="12">
+      <c r="E371" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="12">
+      <c r="F371" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="12">
+      <c r="G371" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="12">
+      <c r="H371" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10929,28 +10947,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="12">
+      <c r="B373" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="12">
+      <c r="C373" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="12">
+      <c r="D373" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="12">
+      <c r="E373" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="12">
+      <c r="F373" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="12">
+      <c r="G373" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="12">
+      <c r="H373" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="12">
+      <c r="I373" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11009,10 +11027,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="12" t="s">
+      <c r="J375" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -11056,28 +11074,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="12">
+      <c r="A377" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="12">
+      <c r="B377" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="12">
+      <c r="C377" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="12">
+      <c r="E377" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="12">
+      <c r="F377" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="12">
+      <c r="G377" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="12">
+      <c r="H377" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11102,28 +11120,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="12">
+      <c r="B379" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="12">
+      <c r="C379" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="12">
+      <c r="D379" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="12">
+      <c r="E379" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="12">
+      <c r="F379" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="12">
+      <c r="G379" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="12">
+      <c r="H379" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="12">
+      <c r="I379" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11182,10 +11200,10 @@
       <c r="I381">
         <f>((C381-C380)^2+(D381- D380)^2)^.5</f>
       </c>
-      <c r="J381" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K381" s="12" t="s">
+      <c r="J381" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L381" t="n">
@@ -11229,28 +11247,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="s" s="12">
+      <c r="A383" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B383" t="s" s="12">
+      <c r="B383" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C383" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D383" t="s" s="12">
+      <c r="C383" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E383" t="s" s="12">
+      <c r="E383" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F383" t="s" s="12">
+      <c r="F383" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G383" t="s" s="12">
+      <c r="G383" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H383" t="s" s="12">
+      <c r="H383" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11275,28 +11293,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="B385" t="s" s="12">
+      <c r="B385" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C385" t="s" s="12">
+      <c r="C385" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D385" t="s" s="12">
+      <c r="D385" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E385" t="s" s="12">
+      <c r="E385" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F385" t="s" s="12">
+      <c r="F385" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G385" t="s" s="12">
+      <c r="G385" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H385" t="s" s="12">
+      <c r="H385" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I385" t="s" s="12">
+      <c r="I385" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11384,10 +11402,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="12" t="s">
+      <c r="J388" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11431,28 +11449,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="12">
+      <c r="A390" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="12">
+      <c r="B390" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="12">
+      <c r="C390" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="12">
+      <c r="E390" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="12">
+      <c r="F390" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="12">
+      <c r="G390" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="12">
+      <c r="H390" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11477,28 +11495,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="12">
+      <c r="B392" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="12">
+      <c r="C392" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="12">
+      <c r="D392" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="12">
+      <c r="E392" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="12">
+      <c r="F392" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="12">
+      <c r="G392" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="12">
+      <c r="H392" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="12">
+      <c r="I392" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11557,10 +11575,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="12" t="s">
+      <c r="J394" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11604,28 +11622,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="12">
+      <c r="A396" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="12">
+      <c r="B396" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="12">
+      <c r="C396" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="12">
+      <c r="E396" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="12">
+      <c r="F396" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="12">
+      <c r="G396" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="12">
+      <c r="H396" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11650,28 +11668,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="12">
+      <c r="B398" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="12">
+      <c r="C398" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="12">
+      <c r="D398" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="12">
+      <c r="E398" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="12">
+      <c r="F398" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="12">
+      <c r="G398" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="12">
+      <c r="H398" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="12">
+      <c r="I398" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11759,10 +11777,10 @@
       <c r="I401">
         <f>((C401-C400)^2+(D401- D400)^2)^.5</f>
       </c>
-      <c r="J401" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K401" s="12" t="s">
+      <c r="J401" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K401" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L401" t="n">
